--- a/app/report/report.xlsx
+++ b/app/report/report.xlsx
@@ -42,24 +42,44 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC9BA4"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -150,35 +170,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -190,7 +219,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -203,22 +244,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -230,7 +277,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -244,70 +303,62 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFEC9BA4"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -491,294 +542,321 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C1:H30"/>
+  <dimension ref="C1:H33"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="36.57" customWidth="1" style="14" min="4" max="4"/>
+    <col width="36.57" customWidth="1" style="21" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.35" customHeight="1" s="15">
-      <c r="D1" s="16" t="inlineStr">
+    <row r="1" ht="17.35" customHeight="1" s="22">
+      <c r="D1" s="23" t="inlineStr">
         <is>
           <t>Харажатлардан кейин Фойда/Зарар</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="15">
-      <c r="D2" s="17" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="22">
+      <c r="D2" s="24" t="inlineStr">
         <is>
           <t>Клинт бонуси</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="25" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="15">
-      <c r="D3" s="17" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="22">
+      <c r="D3" s="24" t="inlineStr">
         <is>
           <t>Менеджерлар бонуси</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="15">
-      <c r="D4" s="17" t="inlineStr">
+      <c r="E3" s="25" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="22">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Прямой</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="15">
-      <c r="D5" s="17" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="22">
+      <c r="D5" s="24" t="inlineStr">
         <is>
           <t>Доставка</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="15">
-      <c r="D6" s="18" t="inlineStr">
+      <c r="E5" s="25" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="22">
+      <c r="D6" s="27" t="inlineStr">
         <is>
           <t>КОРХОНА НОМИ</t>
         </is>
       </c>
-      <c r="E6" s="18" t="n"/>
-      <c r="F6" s="19" t="n"/>
-      <c r="G6" s="20" t="n"/>
-      <c r="H6" s="14" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="15">
-      <c r="D7" s="21" t="inlineStr">
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="28" t="n"/>
+      <c r="G6" s="29" t="n"/>
+      <c r="H6" s="21" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="22">
+      <c r="D7" s="30" t="inlineStr">
         <is>
           <t>ИНН</t>
         </is>
       </c>
-      <c r="E7" s="21" t="n"/>
-      <c r="F7" s="22" t="n"/>
-      <c r="G7" s="23" t="n"/>
-      <c r="H7" s="14" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="15">
-      <c r="C8" s="24" t="inlineStr">
+      <c r="E7" s="30" t="n"/>
+      <c r="F7" s="31" t="n"/>
+      <c r="G7" s="32" t="n"/>
+      <c r="H7" s="21" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="22">
+      <c r="C8" s="33" t="inlineStr">
         <is>
           <t>№</t>
         </is>
       </c>
-      <c r="D8" s="25" t="inlineStr">
+      <c r="D8" s="34" t="inlineStr">
         <is>
           <t>Наименование</t>
         </is>
       </c>
-      <c r="E8" s="26" t="inlineStr">
+      <c r="E8" s="35" t="inlineStr">
         <is>
           <t>Кол-во</t>
         </is>
       </c>
-      <c r="F8" s="26" t="inlineStr">
+      <c r="F8" s="35" t="inlineStr">
         <is>
           <t>Цена</t>
         </is>
       </c>
-      <c r="G8" s="27" t="inlineStr">
+      <c r="G8" s="36" t="inlineStr">
         <is>
           <t>Завода келишилган</t>
         </is>
       </c>
-      <c r="H8" s="24" t="inlineStr">
+      <c r="H8" s="33" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="15">
-      <c r="C9" s="24" t="n"/>
-      <c r="D9" s="24" t="inlineStr">
-        <is>
-          <t>string1</t>
-        </is>
-      </c>
-      <c r="E9" s="26" t="n">
+    <row r="9" ht="15" customHeight="1" s="22">
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="37" t="inlineStr">
+        <is>
+          <t>another</t>
+        </is>
+      </c>
+      <c r="E9" s="38" t="n">
         <v>234</v>
       </c>
-      <c r="F9" s="26" t="n">
-        <v>456</v>
-      </c>
-      <c r="G9" s="26" t="n"/>
-      <c r="H9" s="26" t="n">
-        <v>106704</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="15">
-      <c r="C10" s="24" t="n"/>
-      <c r="D10" s="24" t="n"/>
-      <c r="E10" s="24" t="n"/>
-      <c r="F10" s="24" t="n"/>
-      <c r="G10" s="24" t="n"/>
-      <c r="H10" s="24" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="15">
-      <c r="C11" s="24" t="n"/>
-      <c r="D11" s="24" t="n"/>
-      <c r="E11" s="24" t="n"/>
-      <c r="F11" s="24" t="n"/>
-      <c r="G11" s="24" t="n"/>
-      <c r="H11" s="24" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="15">
-      <c r="C12" s="24" t="n"/>
-      <c r="D12" s="24" t="n"/>
-      <c r="E12" s="24" t="n"/>
-      <c r="F12" s="24" t="n"/>
-      <c r="G12" s="24" t="n"/>
-      <c r="H12" s="24" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="15">
-      <c r="C13" s="24" t="n"/>
-      <c r="D13" s="24" t="n"/>
-      <c r="E13" s="24" t="n"/>
-      <c r="F13" s="24" t="n"/>
-      <c r="G13" s="24" t="n"/>
-      <c r="H13" s="24" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="15">
-      <c r="C14" s="24" t="n"/>
-      <c r="D14" s="24" t="n"/>
-      <c r="E14" s="24" t="n"/>
-      <c r="F14" s="24" t="n"/>
-      <c r="G14" s="24" t="n"/>
-      <c r="H14" s="24" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="15">
-      <c r="C15" s="24" t="n"/>
-      <c r="D15" s="24" t="n"/>
-      <c r="E15" s="24" t="n"/>
-      <c r="F15" s="24" t="n"/>
-      <c r="G15" s="24" t="n"/>
-      <c r="H15" s="24" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="15">
-      <c r="C16" s="24" t="n"/>
-      <c r="D16" s="24" t="n"/>
-      <c r="E16" s="24" t="n"/>
-      <c r="F16" s="24" t="n"/>
-      <c r="G16" s="24" t="n"/>
-      <c r="H16" s="24" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="15">
-      <c r="C17" s="24" t="n"/>
-      <c r="D17" s="24" t="n"/>
-      <c r="E17" s="24" t="n"/>
-      <c r="F17" s="24" t="n"/>
-      <c r="G17" s="24" t="n"/>
-      <c r="H17" s="24" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="15">
-      <c r="C18" s="24" t="n"/>
-      <c r="D18" s="24" t="n"/>
-      <c r="E18" s="24" t="n"/>
-      <c r="F18" s="24" t="n"/>
-      <c r="G18" s="24" t="n"/>
-      <c r="H18" s="24" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="15">
-      <c r="C19" s="24" t="n"/>
-      <c r="D19" s="24" t="n"/>
-      <c r="E19" s="24" t="n"/>
-      <c r="F19" s="24" t="n"/>
-      <c r="G19" s="24" t="n"/>
-      <c r="H19" s="24" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="15">
-      <c r="C20" s="24" t="n"/>
-      <c r="D20" s="24" t="n"/>
-      <c r="E20" s="24" t="n"/>
-      <c r="F20" s="24" t="n"/>
-      <c r="G20" s="24" t="n"/>
-      <c r="H20" s="24" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="15">
-      <c r="C21" s="24" t="n"/>
-      <c r="D21" s="24" t="n"/>
-      <c r="E21" s="24" t="n"/>
-      <c r="F21" s="24" t="n"/>
-      <c r="G21" s="24" t="n"/>
-      <c r="H21" s="24" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="15">
-      <c r="C22" s="24" t="n"/>
-      <c r="D22" s="24" t="n"/>
-      <c r="E22" s="24" t="n"/>
-      <c r="F22" s="24" t="n"/>
-      <c r="G22" s="24" t="n"/>
-      <c r="H22" s="24" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="15">
-      <c r="C23" s="24" t="n"/>
-      <c r="D23" s="24" t="n"/>
-      <c r="E23" s="24" t="n"/>
-      <c r="F23" s="24" t="n"/>
-      <c r="G23" s="24" t="n"/>
-      <c r="H23" s="24" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="15">
-      <c r="C24" s="24" t="n"/>
-      <c r="D24" s="24" t="n"/>
-      <c r="E24" s="24" t="n"/>
-      <c r="F24" s="24" t="n"/>
-      <c r="G24" s="24" t="n"/>
-      <c r="H24" s="24" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="15">
-      <c r="C25" s="24" t="n"/>
-      <c r="D25" s="24" t="n"/>
-      <c r="E25" s="24" t="n"/>
-      <c r="F25" s="24" t="n"/>
-      <c r="G25" s="24" t="n"/>
-      <c r="H25" s="24" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="15">
-      <c r="C26" s="24" t="n"/>
-      <c r="D26" s="24" t="n"/>
-      <c r="E26" s="24" t="n"/>
-      <c r="F26" s="24" t="n"/>
-      <c r="G26" s="24" t="n"/>
-      <c r="H26" s="24" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="15">
-      <c r="C27" s="24" t="n"/>
-      <c r="D27" s="24" t="n"/>
-      <c r="E27" s="24" t="n"/>
-      <c r="F27" s="24" t="n"/>
-      <c r="G27" s="24" t="n"/>
-      <c r="H27" s="24" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="15">
-      <c r="C28" s="24" t="n"/>
-      <c r="D28" s="24" t="n"/>
-      <c r="E28" s="24" t="n"/>
-      <c r="F28" s="24" t="n"/>
-      <c r="G28" s="24" t="n"/>
-      <c r="H28" s="24" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="15">
-      <c r="C29" s="24" t="n"/>
-      <c r="D29" s="24" t="n"/>
-      <c r="E29" s="24" t="n"/>
-      <c r="F29" s="24" t="n"/>
-      <c r="G29" s="24" t="n"/>
-      <c r="H29" s="24" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="15">
-      <c r="C30" s="24" t="n"/>
-      <c r="D30" s="24" t="n"/>
-      <c r="E30" s="24" t="n"/>
-      <c r="F30" s="24" t="n"/>
-      <c r="G30" s="24" t="n"/>
-      <c r="H30" s="24" t="n"/>
+      <c r="F9" s="38" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="39" t="n"/>
+      <c r="H9" s="38" t="n">
+        <v>28888704</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="22">
+      <c r="C10" s="33" t="n"/>
+      <c r="D10" s="37" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="37" t="n"/>
+      <c r="G10" s="40" t="n"/>
+      <c r="H10" s="37" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="22">
+      <c r="C11" s="33" t="n"/>
+      <c r="D11" s="37" t="n"/>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
+      <c r="G11" s="40" t="n"/>
+      <c r="H11" s="37" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="22">
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="37" t="n"/>
+      <c r="E12" s="37" t="n"/>
+      <c r="F12" s="37" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="37" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="22">
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="37" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
+      <c r="G13" s="40" t="n"/>
+      <c r="H13" s="37" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="22">
+      <c r="C14" s="33" t="n"/>
+      <c r="D14" s="37" t="n"/>
+      <c r="E14" s="37" t="n"/>
+      <c r="F14" s="37" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="37" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="22">
+      <c r="C15" s="33" t="n"/>
+      <c r="D15" s="37" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="37" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="22">
+      <c r="C16" s="33" t="n"/>
+      <c r="D16" s="37" t="n"/>
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="37" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="22">
+      <c r="C17" s="33" t="n"/>
+      <c r="D17" s="37" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="37" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="37" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="22">
+      <c r="C18" s="33" t="n"/>
+      <c r="D18" s="37" t="n"/>
+      <c r="E18" s="37" t="n"/>
+      <c r="F18" s="37" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="37" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="22">
+      <c r="C19" s="33" t="n"/>
+      <c r="D19" s="37" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="37" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="22">
+      <c r="C20" s="33" t="n"/>
+      <c r="D20" s="37" t="n"/>
+      <c r="E20" s="37" t="n"/>
+      <c r="F20" s="37" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="37" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="22">
+      <c r="C21" s="33" t="n"/>
+      <c r="D21" s="37" t="n"/>
+      <c r="E21" s="37" t="n"/>
+      <c r="F21" s="37" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="37" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="22">
+      <c r="C22" s="33" t="n"/>
+      <c r="D22" s="37" t="n"/>
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="37" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="22">
+      <c r="C23" s="33" t="n"/>
+      <c r="D23" s="37" t="n"/>
+      <c r="E23" s="37" t="n"/>
+      <c r="F23" s="37" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="37" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="22">
+      <c r="C24" s="33" t="n"/>
+      <c r="D24" s="37" t="n"/>
+      <c r="E24" s="37" t="n"/>
+      <c r="F24" s="37" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="37" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="22">
+      <c r="C25" s="33" t="n"/>
+      <c r="D25" s="37" t="n"/>
+      <c r="E25" s="37" t="n"/>
+      <c r="F25" s="37" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="37" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="22">
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="37" t="n"/>
+      <c r="E26" s="37" t="n"/>
+      <c r="F26" s="37" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="37" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="22">
+      <c r="C27" s="33" t="n"/>
+      <c r="D27" s="37" t="n"/>
+      <c r="E27" s="37" t="n"/>
+      <c r="F27" s="37" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="37" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="22">
+      <c r="C28" s="33" t="n"/>
+      <c r="D28" s="37" t="n"/>
+      <c r="E28" s="37" t="n"/>
+      <c r="F28" s="37" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="37" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="22">
+      <c r="C29" s="33" t="n"/>
+      <c r="D29" s="37" t="n"/>
+      <c r="E29" s="37" t="n"/>
+      <c r="F29" s="37" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="37" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="22">
+      <c r="C30" s="33" t="n"/>
+      <c r="D30" s="37" t="n"/>
+      <c r="E30" s="37" t="n"/>
+      <c r="F30" s="37" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="37" t="n"/>
+    </row>
+    <row r="31">
+      <c r="H31" t="n">
+        <v>28888704</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5% скидка билан</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>28599816.96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>12% ндс билан</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>32031794.9952</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/app/report/report.xlsx
+++ b/app/report/report.xlsx
@@ -651,18 +651,18 @@
       <c r="C9" s="33" t="n"/>
       <c r="D9" s="37" t="inlineStr">
         <is>
-          <t>another</t>
+          <t>string1</t>
         </is>
       </c>
       <c r="E9" s="38" t="n">
         <v>234</v>
       </c>
       <c r="F9" s="38" t="n">
-        <v>123456</v>
+        <v>456</v>
       </c>
       <c r="G9" s="39" t="n"/>
       <c r="H9" s="38" t="n">
-        <v>28888704</v>
+        <v>106704</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="22">
@@ -835,7 +835,7 @@
     </row>
     <row r="31">
       <c r="H31" t="n">
-        <v>28888704</v>
+        <v>106704</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>28599816.96</v>
+        <v>105636.96</v>
       </c>
     </row>
     <row r="33">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>32031794.9952</v>
+        <v>118313.3952</v>
       </c>
     </row>
   </sheetData>

--- a/app/report/report.xlsx
+++ b/app/report/report.xlsx
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="E9" s="36" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="F9" s="36" t="n">
-        <v>456</v>
+        <v>1234</v>
       </c>
       <c r="G9" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="36" t="n">
-        <v>4560</v>
+        <v>288756</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="20">
@@ -865,7 +865,7 @@
     </row>
     <row r="31">
       <c r="H31" t="n">
-        <v>4560</v>
+        <v>106704</v>
       </c>
     </row>
     <row r="32">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4332</v>
+        <v>105636.96</v>
       </c>
     </row>
     <row r="33">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4851.84</v>
+        <v>118313.3952</v>
       </c>
     </row>
   </sheetData>

--- a/app/report/report.xlsx
+++ b/app/report/report.xlsx
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="E2" s="23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="20">
@@ -577,7 +577,7 @@
       </c>
       <c r="E6" s="26" t="inlineStr">
         <is>
-          <t>qaws</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F6" s="27" t="n"/>
@@ -637,20 +637,20 @@
       </c>
       <c r="D9" s="35" t="inlineStr">
         <is>
-          <t>string1</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E9" s="36" t="n">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="F9" s="36" t="n">
-        <v>1234</v>
+        <v>2320</v>
       </c>
       <c r="G9" s="37" t="n">
-        <v>1</v>
+        <v>2340</v>
       </c>
       <c r="H9" s="36" t="n">
-        <v>288756</v>
+        <v>23200</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="20">
@@ -865,17 +865,17 @@
     </row>
     <row r="31">
       <c r="H31" t="n">
-        <v>106704</v>
+        <v>23200</v>
       </c>
     </row>
     <row r="32">
       <c r="G32" t="inlineStr">
         <is>
-          <t>5.0% скидка билан</t>
+          <t>0.0% скидка билан</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>105636.96</v>
+        <v>23200</v>
       </c>
     </row>
     <row r="33">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>118313.3952</v>
+        <v>25984</v>
       </c>
     </row>
   </sheetData>

--- a/app/report/report.xlsx
+++ b/app/report/report.xlsx
@@ -590,11 +590,7 @@
           <t>ИНН</t>
         </is>
       </c>
-      <c r="E7" s="29" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
+      <c r="E7" s="29" t="n"/>
       <c r="F7" s="30" t="n"/>
       <c r="G7" s="30" t="n"/>
       <c r="H7" s="19" t="n"/>
@@ -644,13 +640,11 @@
         <v>10</v>
       </c>
       <c r="F9" s="36" t="n">
-        <v>2320</v>
-      </c>
-      <c r="G9" s="37" t="n">
-        <v>2340</v>
-      </c>
+        <v>12330</v>
+      </c>
+      <c r="G9" s="37" t="n"/>
       <c r="H9" s="36" t="n">
-        <v>23200</v>
+        <v>123300</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="20">
